--- a/Summary - Rollback Calc.xlsx
+++ b/Summary - Rollback Calc.xlsx
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>A999279843</t>
   </si>
@@ -216,15 +216,40 @@
   </si>
   <si>
     <t>Back</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>TB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May </t>
+  </si>
+  <si>
+    <t>RollB</t>
+  </si>
+  <si>
+    <t>RollF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -386,9 +411,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -421,6 +446,10 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -772,7 +801,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1595,15 +1624,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J5"/>
+  <dimension ref="C2:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:10">
+    <row r="2" spans="3:24">
       <c r="D2" s="25" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:24">
       <c r="C3">
         <v>26000</v>
       </c>
@@ -1622,7 +1651,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:24">
       <c r="C4">
         <v>12060</v>
       </c>
@@ -1649,7 +1678,7 @@
         <v>0.13432835820895522</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="3:24">
       <c r="C5">
         <v>6030</v>
       </c>
@@ -1677,7 +1706,176 @@
         <v>8.6235489220563843E-2</v>
       </c>
     </row>
+    <row r="8" spans="3:24">
+      <c r="U8" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+    </row>
+    <row r="9" spans="3:24">
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24">
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10">
+        <v>40339</v>
+      </c>
+      <c r="U10">
+        <v>15764</v>
+      </c>
+      <c r="V10">
+        <v>24575</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24">
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24">
+      <c r="S12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24">
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24">
+      <c r="U14">
+        <f>U10/T10</f>
+        <v>0.39078807109744912</v>
+      </c>
+      <c r="V14" s="27">
+        <f>V10/T10</f>
+        <v>0.60921192890255094</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24">
+      <c r="U16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+    </row>
+    <row r="17" spans="19:24">
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="19:24">
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18">
+        <f>U22-U20-U19</f>
+        <v>22666</v>
+      </c>
+    </row>
+    <row r="19" spans="19:24">
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>24575</v>
+      </c>
+      <c r="U19">
+        <v>1709</v>
+      </c>
+      <c r="W19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="19:24">
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="19:24">
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="19:24">
+      <c r="T22">
+        <f>SUM(T18:T21)</f>
+        <v>24575</v>
+      </c>
+      <c r="U22">
+        <f>T22</f>
+        <v>24575</v>
+      </c>
+    </row>
+    <row r="24" spans="19:24">
+      <c r="S24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="27">
+        <f>U18/$U$22</f>
+        <v>0.92231943031536112</v>
+      </c>
+    </row>
+    <row r="25" spans="19:24">
+      <c r="U25" s="27">
+        <f t="shared" ref="U25:U26" si="3">U19/$U$22</f>
+        <v>6.9542217700915565E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="19:24">
+      <c r="S26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U26" s="27">
+        <f t="shared" si="3"/>
+        <v>8.1383519837232958E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U16:X16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
